--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s1_P3_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s1_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2394.088621098466</v>
+        <v>1840.135252964929</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006999969482421875</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.30000008383183</v>
+        <v>25.81760345874363</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.55797803456366</v>
+        <v>12.37119046829285</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.59659904919993</v>
+        <v>10.68883997447806</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2257.079999999998</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>103.67</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -846,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -912,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25.31430901573738</v>
+        <v>4.685690984262621</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15.41754315746531</v>
+        <v>17.62880953170718</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17.0193546320153</v>
+        <v>11.8446015159008</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.48909622152298</v>
+        <v>27.28226196994636</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>24.79316574842338</v>
       </c>
     </row>
     <row r="8">
@@ -1010,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.20683425157666</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1070,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1084,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1098,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1112,10 +1057,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1126,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1140,10 +1085,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1154,10 +1099,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1168,10 +1113,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1182,10 +1127,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -1196,10 +1141,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1210,10 +1155,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -1224,10 +1169,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
@@ -1238,10 +1183,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
@@ -1252,43 +1197,15 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5</v>
-      </c>
-      <c r="D18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1391,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>252.4649999999991</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -1402,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>249.2849999999991</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1413,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>246.2249999999991</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -1424,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>249.3099999999991</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -1435,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>247.0349999999991</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>44.43999999999971</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
@@ -1457,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>38.53499999999971</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
@@ -1468,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>41.36999999999971</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15">
@@ -1479,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>45.81499999999971</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
@@ -1490,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>45.83499999999971</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17">
@@ -1501,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>125.4949999999988</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
@@ -1512,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>121.6349999999989</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
@@ -1523,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>109.3699999999988</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
@@ -1534,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>122.0549999999988</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
@@ -1545,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>123.5549999999989</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
@@ -1556,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>177.6150000000009</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23">
@@ -1567,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>171.8100000000009</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24">
@@ -1578,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>178.4650000000009</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
@@ -1589,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>177.2</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26">
@@ -1600,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>179.1300000000009</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
@@ -1611,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>101.7250000000004</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28">
@@ -1622,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>96.12000000000037</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29">
@@ -1633,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>98.26500000000037</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30">
@@ -1644,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>96.94500000000036</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31">
@@ -1655,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>103.5650000000004</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32">
@@ -1666,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>252.4649999999991</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33">
@@ -1677,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>249.2849999999991</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34">
@@ -1688,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>246.2249999999991</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35">
@@ -1699,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>249.3099999999991</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36">
@@ -1710,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>247.0349999999991</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>177.6150000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1732,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>171.8100000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1743,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>178.4650000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1754,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>177.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1765,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>179.1300000000009</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1812,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>152.4649999999991</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -1823,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>149.2849999999991</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
@@ -1834,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>146.2249999999991</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -1845,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>149.3099999999991</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6">
@@ -1856,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>147.0349999999991</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
@@ -1867,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>77.61500000000086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1878,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>71.81000000000085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1889,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>78.46500000000086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1900,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>77.19999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1911,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>79.13000000000088</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1958,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -1969,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -1980,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1991,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -2002,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -2013,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2024,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2035,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2046,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -2057,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2068,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -2079,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -2090,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2101,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -2112,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2236,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2263,7 +2180,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2274,7 +2191,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2285,7 +2202,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2296,7 +2213,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2307,7 +2224,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2318,7 +2235,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2329,7 +2246,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2340,7 +2257,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2351,7 +2268,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2362,7 +2279,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2373,7 +2290,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2384,7 +2301,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2395,7 +2312,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -2406,7 +2323,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -2417,34 +2334,12 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="n">
         <v>1</v>
       </c>
     </row>
